--- a/Datos/DatosOficiales/BDTESISCOEF.xlsx
+++ b/Datos/DatosOficiales/BDTESISCOEF.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Tesis\Datos\DatosOficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F336B1-6F47-4923-9ED2-EC7AE32CD195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22DE1FA-0753-4F2D-AA4F-D75079AF9021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="6525" windowWidth="22095" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$109</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -485,7 +488,7 @@
   <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5077,6 +5080,7 @@
       <c r="I208" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J109" xr:uid="{0713E84F-3633-4DFB-BC6E-8CDD0CEC9906}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Datos/DatosOficiales/BDTESISCOEF.xlsx
+++ b/Datos/DatosOficiales/BDTESISCOEF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Tesis\Datos\DatosOficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22DE1FA-0753-4F2D-AA4F-D75079AF9021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A815C7B8-2344-4B33-BAD8-A8D9A1B74598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="6525" windowWidth="22095" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="6480" windowWidth="22095" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.5713854368087801</v>
       </c>
@@ -598,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.5320157996750301</v>
       </c>
@@ -630,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2.06636658716873</v>
       </c>
@@ -662,7 +663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.4209550967737099</v>
       </c>
@@ -694,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.60957829379057</v>
       </c>
@@ -726,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.0661513315215099</v>
       </c>
@@ -758,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.3556781760223999</v>
       </c>
@@ -790,7 +791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.68741434433981496</v>
       </c>
@@ -822,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.3072748091722499</v>
       </c>
@@ -854,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.728564878232421</v>
       </c>
@@ -886,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.30590977382287</v>
       </c>
@@ -918,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.83097666067417897</v>
       </c>
@@ -950,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.1445782320081399</v>
       </c>
@@ -982,7 +983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1.98245695869086</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1.05925624334957</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1.18131856236443</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.86278547037197</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.1876644767171201</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.67628980450983001</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.3647620101981599</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.8263309714101601</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1.4439103971526599</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.07338828376803</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.0550699398876699</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1.5071141479111601</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1.3058121888451699</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1.53763323266323</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1.3899135310627599</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1.7770439765559201</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.84600167056227804</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.19086890376631</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.8796137427281201</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.3146494955391701</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.977069468940164</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.50840546936602</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.90945656820932297</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.28384457379388</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.2124190448154699</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.73954822954819299</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.06818958556292</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.69215654621983602</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3.3199710143947998</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.90483144892937295</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.05668716254866</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.333907943719922</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1.31799366056164</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1.4359136352383499</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1.200037510796</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1.44686208096828</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1.5829797425488901</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1.8481461261975201</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.94675559638071904</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.97608580218595697</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.76704818943821096</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.82224826963076703</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1.38379059619541</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.3437205207967799</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1.6608929526737299</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1.87906715687405</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.890113833668708</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1.05537150104559</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1.0926867094400301</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1.0052293530193701</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.78725980981906996</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1.7429534586020501</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1.66287803298596</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1.1499341292371801</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.91626440231127804</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1.2371128635915301</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.78953234482688806</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1.1459109950018</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.46222754383925102</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1.01349483579222</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1.21174429432478</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.77352458232218302</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.28550172865040002</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1.4340164435142599</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1.36250633579367</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1.29032189845358</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1.2351340462115401</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1.17245094008947</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1.058317488028</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1.55948292864533</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1.1055877773343501</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.97556951981829199</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1.25545337414361</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1.30035119707095</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.90069168656133403</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1.62288145734121</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.85668977418634695</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2.2386140172682198</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.87202019209530901</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0.97141372527573</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2.5177977693071498</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1.047238849762</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1.0526864533592599</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1.1431301903795299</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1.07066580491827</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0.98518542685140398</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1.0624206277854</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1.12113629752091</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1.2055761977431201</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1.4640389020965301</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1.14252602816918</v>
       </c>
@@ -5080,7 +5081,13 @@
       <c r="I208" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J109" xr:uid="{0713E84F-3633-4DFB-BC6E-8CDD0CEC9906}"/>
+  <autoFilter ref="A1:J109" xr:uid="{0713E84F-3633-4DFB-BC6E-8CDD0CEC9906}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="P1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
